--- a/titanic.xlsx
+++ b/titanic.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Braund, Mr. Owen Harris</t>
+          <t>anonymous</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cumings, Mrs. John Bradley (Florence Briggs Thayer)</t>
+          <t>anonymous</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Heikkinen, Miss. Laina</t>
+          <t>anonymous</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/titanic.xlsx
+++ b/titanic.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="passengers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="passengers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
